--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -5,45 +5,39 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Indonesia\eps-1.2.1-WIP-B\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="140" windowWidth="24920" windowHeight="11570" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>Each U.S. state that has an RPS defines the sources that qualify for that RPS, leading to</t>
+  </si>
+  <si>
     <t>Electricity Source</t>
   </si>
   <si>
-    <t>Qualifies for RPS</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
     <t>hydro</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>solar PV</t>
   </si>
   <si>
@@ -68,7 +62,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>BAU RPS-Qualifying Sources</t>
+    <t>The non-BAU version of this variable supports a boolean policy lever and is intended to be set by the</t>
   </si>
   <si>
     <t>RQSD BAU RPS Qualifying Source Definitions</t>
@@ -77,22 +71,52 @@
     <t>RQSD RPS Qualifying Source Definitions</t>
   </si>
   <si>
-    <t>Ministry of Energy and Mineral Resources</t>
-  </si>
-  <si>
-    <t>Investing in New and Renewable Energy in Indonesia</t>
-  </si>
-  <si>
-    <t>https://d2oc0ihd6a5bt.cloudfront.net/wp-content/uploads/sites/837/2015/06/William-Sabandar_Indonesia.pdf</t>
-  </si>
-  <si>
-    <t>Slide 3</t>
-  </si>
-  <si>
-    <t>Indonesia's renewable energy law includes "new and renewable energy" which includes the traditional renewable</t>
-  </si>
-  <si>
-    <t>energy sources as well as nuclear.</t>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>differences between states.  Here, we use a "clean energy standard"</t>
+  </si>
+  <si>
+    <t>(counting everything except fossil fuels) as our definition for the BAU case.</t>
+  </si>
+  <si>
+    <t>model user.  The example we include uses only wind, solar, and geothermal.</t>
+  </si>
+  <si>
+    <t>Hydro is excluded because of limited potential for new large hydro and land use impacts.</t>
+  </si>
+  <si>
+    <t>Biomass is excluded because it is not truly carbon-neutral, and it has other issues, such as</t>
+  </si>
+  <si>
+    <t>local air quality impacts and land use challenges.</t>
+  </si>
+  <si>
+    <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
+  </si>
+  <si>
+    <t>see notes</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Qualifies for RPS (Boolean)</t>
   </si>
 </sst>
 </file>
@@ -124,18 +148,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,17 +169,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -467,74 +482,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="84.54296875" customWidth="1"/>
+    <col min="2" max="2" width="84.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -548,111 +573,152 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
     </row>
@@ -666,111 +732,152 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
     </row>
